--- a/SPPSApi/Doc/Template/FS0616_Export.xlsx
+++ b/SPPSApi/Doc/Template/FS0616_Export.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>订单编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -30,14 +30,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>发注工厂</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>内外区分</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>号旧区分</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -54,10 +46,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>供应商出荷地</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>受入</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -83,6 +71,22 @@
   </si>
   <si>
     <t>回复截止日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发注工场</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出荷场</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可对应箱数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>供应商回复时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -115,7 +119,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.249977111117893"/>
+        <fgColor theme="8" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -454,32 +458,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q1"/>
+  <dimension ref="A1:R1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="5.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9" style="1" bestFit="1"/>
-    <col min="7" max="7" width="6.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="17" width="11.625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="11.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -490,46 +479,49 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="N1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="O1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>16</v>
+      <c r="R1" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/SPPSApi/Doc/Template/FS0616_Export.xlsx
+++ b/SPPSApi/Doc/Template/FS0616_Export.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>订单编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -30,10 +30,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>号旧区分</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>OE=SP</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -87,6 +83,14 @@
   </si>
   <si>
     <t>供应商回复时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内外</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>号旧</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -458,17 +462,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R1"/>
+  <dimension ref="A1:S1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="17" width="11.625" style="1" customWidth="1"/>
-    <col min="18" max="18" width="11.625" customWidth="1"/>
+    <col min="1" max="18" width="11.625" style="1" customWidth="1"/>
+    <col min="19" max="19" width="11.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -479,49 +485,52 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="L1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="O1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="M1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="S1" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>
